--- a/tax_invoice_out/tests/sell.xlsx
+++ b/tax_invoice_out/tests/sell.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
-    <t>德清昱利建材有限公司发票数据</t>
+    <t>上海隆盛有限公司发票数据</t>
   </si>
   <si>
     <t>资料区间：2018-06-01 ~ 2018-06-30</t>
@@ -79,22 +79,22 @@
     <t>税收分类编码</t>
   </si>
   <si>
-    <t>3300162130</t>
-  </si>
-  <si>
-    <t>18150335x</t>
-  </si>
-  <si>
-    <t>浙江华盛达建设集团股份有限公司</t>
-  </si>
-  <si>
-    <t>913300007109583289</t>
-  </si>
-  <si>
-    <t>农行德清县支行19130101040009713</t>
-  </si>
-  <si>
-    <t>浙江省德清县武康镇中心北路898号 0572-8080876</t>
+    <t>3000000130</t>
+  </si>
+  <si>
+    <t>18181818</t>
+  </si>
+  <si>
+    <t>浙江盛达股份有限公司</t>
+  </si>
+  <si>
+    <t>9000009</t>
+  </si>
+  <si>
+    <t>上海银行66881199889900</t>
+  </si>
+  <si>
+    <t>浙江省杭州市上城区中心北路99号 0572-88886666</t>
   </si>
   <si>
     <t>2018-06-11</t>
@@ -237,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -267,6 +267,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -281,6 +288,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -288,8 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,83 +336,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,16 +358,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,181 +433,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,32 +624,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -667,30 +641,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,157 +674,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +889,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,7 +1209,7 @@
   <dimension ref="A2:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1301,19 +1303,19 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
